--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,23 +1161,27 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44227</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13716</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>20000</v>
+        <v>33716</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,23 +1181,27 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44601</v>
+      </c>
+      <c r="B7" s="16">
+        <v>11316</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1682,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>33716</v>
+        <v>45032</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44611</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>33716</v>
+        <v>13716</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1201,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1217,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1233,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1265,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1281,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1297,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1313,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1329,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1345,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1361,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1377,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1393,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1409,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1425,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1441,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1457,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1473,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1489,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1505,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1521,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1537,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1553,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1569,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1585,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1601,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1617,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1667,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1690,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>45032</v>
+        <v>25032</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,15 +1177,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44628</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>13716</v>
+        <v>-1284</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,43 +1205,51 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25032</v>
+        <v>10032</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44611</v>
+      </c>
+      <c r="B8" s="16">
+        <v>6912</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>25032</v>
+        <v>16944</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44618</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44632</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8100</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44618</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1261,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1281,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1297,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44618</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1659,7 +1671,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>45032</v>
+        <v>60044</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1667,7 +1679,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1690,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25032</v>
+        <v>25044</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>HINDUSTAN TOYS</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
   </si>
   <si>
     <t>CUSTOMER NAME - SANJAY TRADERS</t>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1145,59 +1142,55 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7">
+        <v>44645</v>
+      </c>
       <c r="B5" s="8">
-        <v>20000</v>
+        <v>6628</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44611</v>
+        <v>44695</v>
       </c>
       <c r="G5" s="8">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-15000</v>
+        <v>-3372</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44634</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44227</v>
+        <v>44657</v>
       </c>
       <c r="B6" s="8">
-        <v>13716</v>
+        <v>8200</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44628</v>
-      </c>
-      <c r="G6" s="8">
-        <v>15000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-1284</v>
+        <v>4828</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>407</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
-        <v>44601</v>
+        <v>44659</v>
       </c>
       <c r="B7" s="16">
-        <v>11316</v>
+        <v>7056</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
@@ -1205,19 +1198,19 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>10032</v>
+        <v>11884</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
-        <v>44611</v>
+        <v>44662</v>
       </c>
       <c r="B8" s="16">
-        <v>6912</v>
+        <v>5800</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
@@ -1225,19 +1218,19 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>16944</v>
+        <v>17684</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52">
-        <v>44632</v>
+        <v>44677</v>
       </c>
       <c r="B9" s="13">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1245,43 +1238,51 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25044</v>
+        <v>25984</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44688</v>
+      </c>
+      <c r="B10" s="13">
+        <v>8300</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>34284</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="52">
+        <v>44690</v>
+      </c>
+      <c r="B11" s="17">
+        <v>7056</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,11 +1294,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1309,11 +1310,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1326,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1342,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1358,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1374,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1390,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1406,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1422,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1438,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1454,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1470,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1486,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1502,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1518,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1534,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1550,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1566,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1582,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1598,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1614,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1630,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,11 +1647,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1671,7 +1672,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>60044</v>
+        <v>51340</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1679,7 +1680,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1703,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25044</v>
+        <v>41340</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,94 +1143,106 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44645</v>
+        <v>44592</v>
       </c>
       <c r="B5" s="8">
-        <v>6628</v>
+        <v>13716</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44695</v>
+        <v>44628</v>
       </c>
       <c r="G5" s="8">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-3372</v>
+        <v>-42284</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44657</v>
+        <v>44601</v>
       </c>
       <c r="B6" s="8">
-        <v>8200</v>
+        <v>11316</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44659</v>
+      </c>
+      <c r="G6" s="8">
+        <v>16000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>4828</v>
+        <v>-30968</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>56</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="49">
-        <v>44659</v>
+        <v>44611</v>
       </c>
       <c r="B7" s="16">
-        <v>7056</v>
+        <v>6912</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44695</v>
+      </c>
+      <c r="G7" s="16">
+        <v>10000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11884</v>
+        <v>-24056</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15">
-        <v>44662</v>
+        <v>44632</v>
       </c>
       <c r="B8" s="16">
-        <v>5800</v>
+        <v>8100</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44716</v>
+      </c>
+      <c r="G8" s="16">
+        <v>15000</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>17684</v>
+        <v>-15956</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="52">
-        <v>44677</v>
+        <v>44645</v>
       </c>
       <c r="B9" s="13">
-        <v>8300</v>
+        <v>6628</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
@@ -1238,19 +1250,19 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25984</v>
+        <v>-9328</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="52">
-        <v>44688</v>
+        <v>44656</v>
       </c>
       <c r="B10" s="13">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
@@ -1258,16 +1270,16 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>34284</v>
+        <v>-1128</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="52">
-        <v>44690</v>
+        <v>44659</v>
       </c>
       <c r="B11" s="17">
         <v>7056</v>
@@ -1278,75 +1290,91 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>5928</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="52">
+        <v>44662</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5800</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>11728</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="52">
+        <v>44677</v>
+      </c>
+      <c r="B13" s="13">
+        <v>8300</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>20028</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="52">
+        <v>44688</v>
+      </c>
+      <c r="B14" s="17">
+        <v>8300</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>28328</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="52">
+        <v>44690</v>
+      </c>
+      <c r="B15" s="17">
+        <v>7056</v>
+      </c>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1386,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1402,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1418,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1434,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1450,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1466,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1482,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1498,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1514,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1530,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1546,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1562,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1578,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1594,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1610,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1626,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1642,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1658,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1675,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1672,7 +1700,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>51340</v>
+        <v>91384</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1680,7 +1708,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>10000</v>
+        <v>56000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1703,7 +1731,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>41340</v>
+        <v>35384</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44716</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SANJAY TRADERS</t>
+  </si>
+  <si>
+    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,238 +1146,184 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44592</v>
+        <v>44777</v>
       </c>
       <c r="B5" s="8">
-        <v>13716</v>
+        <v>10000</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44628</v>
-      </c>
-      <c r="G5" s="8">
-        <v>15000</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-42284</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44601</v>
-      </c>
-      <c r="B6" s="8">
-        <v>11316</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44659</v>
-      </c>
-      <c r="G6" s="8">
-        <v>16000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-30968</v>
+        <v>10000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>146</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44611</v>
-      </c>
-      <c r="B7" s="16">
-        <v>6912</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44695</v>
-      </c>
-      <c r="G7" s="16">
-        <v>10000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-24056</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>136</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44632</v>
-      </c>
-      <c r="B8" s="16">
-        <v>8100</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
-      <c r="F8" s="15">
-        <v>44716</v>
-      </c>
-      <c r="G8" s="16">
-        <v>15000</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-15956</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>115</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>44645</v>
-      </c>
-      <c r="B9" s="13">
-        <v>6628</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-9328</v>
+        <v>10000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>102</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44656</v>
-      </c>
-      <c r="B10" s="13">
-        <v>8200</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>-1128</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="52">
-        <v>44659</v>
-      </c>
-      <c r="B11" s="17">
-        <v>7056</v>
-      </c>
+      <c r="A11" s="52"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>5928</v>
+        <v>10000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="52">
-        <v>44662</v>
-      </c>
-      <c r="B12" s="17">
-        <v>5800</v>
-      </c>
+      <c r="A12" s="52"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11728</v>
+        <v>10000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="52">
-        <v>44677</v>
-      </c>
-      <c r="B13" s="13">
-        <v>8300</v>
-      </c>
+      <c r="A13" s="52"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="18"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>20028</v>
+        <v>10000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="52">
-        <v>44688</v>
-      </c>
-      <c r="B14" s="17">
-        <v>8300</v>
-      </c>
+      <c r="A14" s="52"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="14"/>
       <c r="D14" s="18"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>28328</v>
+        <v>10000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="52">
-        <v>44690</v>
-      </c>
-      <c r="B15" s="17">
-        <v>7056</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="19"/>
       <c r="D15" s="18"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1335,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1351,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1367,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1383,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1399,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1415,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1431,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1447,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1463,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1479,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1495,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1511,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1527,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1543,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1559,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1575,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1591,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1658,11 +1607,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1675,11 +1624,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1700,7 +1649,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>91384</v>
+        <v>10000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1708,7 +1657,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1731,7 +1680,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>35384</v>
+        <v>10000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - SANJAY TRADERS</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,25 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44777</v>
-      </c>
-      <c r="B5" s="8">
-        <v>10000</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1175,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1287,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1649,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1680,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1073,7 +1073,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1073,7 +1073,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44972</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6336</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,23 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44972</v>
-      </c>
-      <c r="B5" s="8">
-        <v>6336</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>50</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45022</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1644,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>6336</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/SANJAY TRADERS.xlsx
+++ b/IMPORTANT/SANJAY TRADERS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
